--- a/ExcelOutputData/DataForShine.xlsx
+++ b/ExcelOutputData/DataForShine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects-UiPath\RPAAutomationFramework\ExcelOutputData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A4FAAA-839B-47E3-BDE1-E5FE4C511A1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A9A0E4-A134-44D5-AEA6-BD05745F311A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="930" windowWidth="19740" windowHeight="9990" xr2:uid="{F5D0BAE8-A285-4DC6-A9D0-C529DB312F68}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>JobProfileName</t>
   </si>
@@ -425,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A3856EF-BC15-4831-863D-FD965E4E1B1F}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -473,6 +473,34 @@
         <v>11</v>
       </c>
     </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
